--- a/src/data/INFLACION.xlsx
+++ b/src/data/INFLACION.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEONARDO ACUÑA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\OneDrive\Documentos\Proyecto Modelo Codigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B9E9FF-5E0D-4D12-A55F-494E355B7E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771902CD-2791-411B-A9FA-DA0BB5E202CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Año(aaaa)-Mes(mm)</t>
   </si>
@@ -58,6 +58,207 @@
   <si>
     <t>Límite inferior</t>
   </si>
+  <si>
+    <t>2023-08</t>
+  </si>
+  <si>
+    <t>2023-07</t>
+  </si>
+  <si>
+    <t>2023-06</t>
+  </si>
+  <si>
+    <t>2023-05</t>
+  </si>
+  <si>
+    <t>2023-04</t>
+  </si>
+  <si>
+    <t>2023-03</t>
+  </si>
+  <si>
+    <t>2023-02</t>
+  </si>
+  <si>
+    <t>2023-01</t>
+  </si>
+  <si>
+    <t>2022-12</t>
+  </si>
+  <si>
+    <t>2022-11</t>
+  </si>
+  <si>
+    <t>2022-09</t>
+  </si>
+  <si>
+    <t>2022-08</t>
+  </si>
+  <si>
+    <t>2022-07</t>
+  </si>
+  <si>
+    <t>2022-06</t>
+  </si>
+  <si>
+    <t>2022-05</t>
+  </si>
+  <si>
+    <t>2022-04</t>
+  </si>
+  <si>
+    <t>2022-03</t>
+  </si>
+  <si>
+    <t>2022-02</t>
+  </si>
+  <si>
+    <t>2022-01</t>
+  </si>
+  <si>
+    <t>2021-12</t>
+  </si>
+  <si>
+    <t>2021-11</t>
+  </si>
+  <si>
+    <t>2021-10</t>
+  </si>
+  <si>
+    <t>2021-09</t>
+  </si>
+  <si>
+    <t>2021-08</t>
+  </si>
+  <si>
+    <t>2021-07</t>
+  </si>
+  <si>
+    <t>2021-06</t>
+  </si>
+  <si>
+    <t>2021-05</t>
+  </si>
+  <si>
+    <t>2021-04</t>
+  </si>
+  <si>
+    <t>2021-03</t>
+  </si>
+  <si>
+    <t>2021-02</t>
+  </si>
+  <si>
+    <t>2021-01</t>
+  </si>
+  <si>
+    <t>2020-12</t>
+  </si>
+  <si>
+    <t>2020-11</t>
+  </si>
+  <si>
+    <t>2020-10</t>
+  </si>
+  <si>
+    <t>2020-09</t>
+  </si>
+  <si>
+    <t>2020-08</t>
+  </si>
+  <si>
+    <t>2020-07</t>
+  </si>
+  <si>
+    <t>2020-06</t>
+  </si>
+  <si>
+    <t>2020-05</t>
+  </si>
+  <si>
+    <t>2020-04</t>
+  </si>
+  <si>
+    <t>2020-03</t>
+  </si>
+  <si>
+    <t>2020-02</t>
+  </si>
+  <si>
+    <t>2020-01</t>
+  </si>
+  <si>
+    <t>2019-12</t>
+  </si>
+  <si>
+    <t>2019-11</t>
+  </si>
+  <si>
+    <t>2019-10</t>
+  </si>
+  <si>
+    <t>2019-09</t>
+  </si>
+  <si>
+    <t>2019-08</t>
+  </si>
+  <si>
+    <t>2019-07</t>
+  </si>
+  <si>
+    <t>2019-06</t>
+  </si>
+  <si>
+    <t>2019-05</t>
+  </si>
+  <si>
+    <t>2019-04</t>
+  </si>
+  <si>
+    <t>2019-03</t>
+  </si>
+  <si>
+    <t>2019-02</t>
+  </si>
+  <si>
+    <t>2019-01</t>
+  </si>
+  <si>
+    <t>2018-12</t>
+  </si>
+  <si>
+    <t>2018-11</t>
+  </si>
+  <si>
+    <t>2018-10</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>2018-08</t>
+  </si>
+  <si>
+    <t>2018-07</t>
+  </si>
+  <si>
+    <t>2018-06</t>
+  </si>
+  <si>
+    <t>2018-05</t>
+  </si>
+  <si>
+    <t>2018-04</t>
+  </si>
+  <si>
+    <t>2018-03</t>
+  </si>
+  <si>
+    <t>2018-02</t>
+  </si>
+  <si>
+    <t>2018-01</t>
+  </si>
 </sst>
 </file>
 
@@ -66,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="####\-##"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +291,18 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -166,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -203,6 +416,12 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,8 +729,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>202308</v>
+      <c r="A2" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="6">
         <v>11.43</v>
@@ -527,8 +746,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>202307</v>
+      <c r="A3" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="10">
         <v>11.78</v>
@@ -544,8 +763,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>202306</v>
+      <c r="A4" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="6">
         <v>12.13</v>
@@ -561,8 +780,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>202305</v>
+      <c r="A5" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="10">
         <v>12.36</v>
@@ -578,8 +797,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>202304</v>
+      <c r="A6" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="6">
         <v>12.82</v>
@@ -595,8 +814,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>202303</v>
+      <c r="A7" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="10">
         <v>13.34</v>
@@ -612,8 +831,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>202302</v>
+      <c r="A8" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="6">
         <v>13.28</v>
@@ -629,8 +848,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>202301</v>
+      <c r="A9" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="10">
         <v>13.25</v>
@@ -646,8 +865,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>202212</v>
+      <c r="A10" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="B10" s="6">
         <v>13.12</v>
@@ -663,8 +882,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>202211</v>
+      <c r="A11" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="B11" s="10">
         <v>12.53</v>
@@ -697,8 +916,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>202209</v>
+      <c r="A13" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="B13" s="10">
         <v>11.44</v>
@@ -714,8 +933,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>202208</v>
+      <c r="A14" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="B14" s="6">
         <v>10.84</v>
@@ -731,8 +950,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>202207</v>
+      <c r="A15" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="B15" s="10">
         <v>10.210000000000001</v>
@@ -748,8 +967,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>202206</v>
+      <c r="A16" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B16" s="6">
         <v>9.67</v>
@@ -765,8 +984,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>202205</v>
+      <c r="A17" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="B17" s="10">
         <v>9.07</v>
@@ -782,8 +1001,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>202204</v>
+      <c r="A18" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="B18" s="6">
         <v>9.23</v>
@@ -799,8 +1018,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>202203</v>
+      <c r="A19" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B19" s="10">
         <v>8.5299999999999994</v>
@@ -816,8 +1035,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>202202</v>
+      <c r="A20" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="6">
         <v>8.01</v>
@@ -833,8 +1052,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>202201</v>
+      <c r="A21" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="B21" s="10">
         <v>6.94</v>
@@ -850,8 +1069,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>202112</v>
+      <c r="A22" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="B22" s="6">
         <v>5.62</v>
@@ -867,8 +1086,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>202111</v>
+      <c r="A23" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B23" s="10">
         <v>5.26</v>
@@ -884,8 +1103,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>202110</v>
+      <c r="A24" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B24" s="6">
         <v>4.58</v>
@@ -901,8 +1120,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>202109</v>
+      <c r="A25" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="B25" s="10">
         <v>4.51</v>
@@ -918,8 +1137,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>202108</v>
+      <c r="A26" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="B26" s="6">
         <v>4.4400000000000004</v>
@@ -935,8 +1154,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>202107</v>
+      <c r="A27" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="B27" s="10">
         <v>3.97</v>
@@ -952,8 +1171,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>202106</v>
+      <c r="A28" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="B28" s="6">
         <v>3.63</v>
@@ -969,8 +1188,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>202105</v>
+      <c r="A29" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="B29" s="10">
         <v>3.3</v>
@@ -986,8 +1205,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>202104</v>
+      <c r="A30" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B30" s="6">
         <v>1.95</v>
@@ -1003,8 +1222,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>202103</v>
+      <c r="A31" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="B31" s="10">
         <v>1.51</v>
@@ -1020,8 +1239,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>202102</v>
+      <c r="A32" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B32" s="6">
         <v>1.56</v>
@@ -1037,8 +1256,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>202101</v>
+      <c r="A33" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="B33" s="10">
         <v>1.6</v>
@@ -1054,8 +1273,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>202012</v>
+      <c r="A34" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B34" s="6">
         <v>1.61</v>
@@ -1071,8 +1290,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>202011</v>
+      <c r="A35" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="B35" s="10">
         <v>1.49</v>
@@ -1088,8 +1307,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>202010</v>
+      <c r="A36" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B36" s="6">
         <v>1.75</v>
@@ -1105,8 +1324,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>202009</v>
+      <c r="A37" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="B37" s="10">
         <v>1.97</v>
@@ -1122,8 +1341,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>202008</v>
+      <c r="A38" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B38" s="6">
         <v>1.88</v>
@@ -1139,8 +1358,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>202007</v>
+      <c r="A39" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="B39" s="10">
         <v>1.97</v>
@@ -1156,8 +1375,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>202006</v>
+      <c r="A40" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="B40" s="6">
         <v>2.19</v>
@@ -1173,8 +1392,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>202005</v>
+      <c r="A41" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="B41" s="10">
         <v>2.85</v>
@@ -1190,8 +1409,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>202004</v>
+      <c r="A42" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="B42" s="6">
         <v>3.51</v>
@@ -1207,8 +1426,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
-        <v>202003</v>
+      <c r="A43" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="B43" s="10">
         <v>3.86</v>
@@ -1224,8 +1443,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>202002</v>
+      <c r="A44" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="B44" s="6">
         <v>3.72</v>
@@ -1241,8 +1460,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
-        <v>202001</v>
+      <c r="A45" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="B45" s="10">
         <v>3.62</v>
@@ -1258,8 +1477,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>201912</v>
+      <c r="A46" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B46" s="6">
         <v>3.8</v>
@@ -1275,8 +1494,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <v>201911</v>
+      <c r="A47" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B47" s="10">
         <v>3.84</v>
@@ -1292,8 +1511,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>201910</v>
+      <c r="A48" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="B48" s="6">
         <v>3.86</v>
@@ -1309,8 +1528,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
-        <v>201909</v>
+      <c r="A49" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="B49" s="10">
         <v>3.82</v>
@@ -1326,8 +1545,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>201908</v>
+      <c r="A50" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="B50" s="6">
         <v>3.75</v>
@@ -1343,8 +1562,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
-        <v>201907</v>
+      <c r="A51" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="B51" s="10">
         <v>3.79</v>
@@ -1360,8 +1579,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>201906</v>
+      <c r="A52" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="B52" s="6">
         <v>3.43</v>
@@ -1377,8 +1596,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
-        <v>201905</v>
+      <c r="A53" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="B53" s="10">
         <v>3.31</v>
@@ -1394,8 +1613,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>201904</v>
+      <c r="A54" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="B54" s="6">
         <v>3.25</v>
@@ -1411,8 +1630,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
-        <v>201903</v>
+      <c r="A55" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="B55" s="10">
         <v>3.21</v>
@@ -1428,8 +1647,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>201902</v>
+      <c r="A56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="B56" s="6">
         <v>3.01</v>
@@ -1445,8 +1664,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
-        <v>201901</v>
+      <c r="A57" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="B57" s="10">
         <v>3.15</v>
@@ -1462,8 +1681,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>201812</v>
+      <c r="A58" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B58" s="6">
         <v>3.18</v>
@@ -1479,8 +1698,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
-        <v>201811</v>
+      <c r="A59" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="B59" s="10">
         <v>3.27</v>
@@ -1496,8 +1715,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>201810</v>
+      <c r="A60" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B60" s="6">
         <v>3.33</v>
@@ -1513,8 +1732,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
-        <v>201809</v>
+      <c r="A61" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="B61" s="10">
         <v>3.23</v>
@@ -1530,8 +1749,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>201808</v>
+      <c r="A62" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="B62" s="6">
         <v>3.1</v>
@@ -1547,8 +1766,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
-        <v>201807</v>
+      <c r="A63" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="B63" s="10">
         <v>3.12</v>
@@ -1564,8 +1783,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
-        <v>201806</v>
+      <c r="A64" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="B64" s="6">
         <v>3.2</v>
@@ -1581,8 +1800,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
-        <v>201805</v>
+      <c r="A65" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="B65" s="10">
         <v>3.16</v>
@@ -1598,8 +1817,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
-        <v>201804</v>
+      <c r="A66" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="B66" s="6">
         <v>3.13</v>
@@ -1615,8 +1834,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
-        <v>201803</v>
+      <c r="A67" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B67" s="10">
         <v>3.14</v>
@@ -1632,8 +1851,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
-        <v>201802</v>
+      <c r="A68" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="B68" s="6">
         <v>3.37</v>
@@ -1649,8 +1868,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
-        <v>201801</v>
+      <c r="A69" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="B69" s="10">
         <v>3.68</v>
@@ -1666,6 +1885,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/data/INFLACION.xlsx
+++ b/src/data/INFLACION.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\OneDrive\Documentos\Proyecto Modelo Codigo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEONARDO ACUÑA\Documents\6 semestre\MyS\Proyecto-Monitoreo\Backend\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771902CD-2791-411B-A9FA-DA0BB5E202CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7DBDAF-F386-4631-84DB-23EB0133A1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Año(aaaa)-Mes(mm)</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>2018-01</t>
+  </si>
+  <si>
+    <t>2022-10</t>
   </si>
 </sst>
 </file>
@@ -705,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,8 +902,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>202210</v>
+      <c r="A12" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B12" s="6">
         <v>12.22</v>
